--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Gilson\Programacao\R\loop_graphics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9F46BD-D3F9-4C8F-B9C0-D558D9C39DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DED5DAD-FD1B-4465-995C-6332542AB91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="10740" xr2:uid="{646AFA57-48C0-45B5-B3B1-26982EF37261}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{646AFA57-48C0-45B5-B3B1-26982EF37261}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,60 +34,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>a5</t>
-  </si>
-  <si>
-    <t>a6</t>
-  </si>
-  <si>
-    <t>a7</t>
-  </si>
-  <si>
-    <t>a8</t>
-  </si>
-  <si>
-    <t>a9</t>
-  </si>
-  <si>
-    <t>a10</t>
-  </si>
-  <si>
-    <t>a11</t>
-  </si>
-  <si>
-    <t>a12</t>
-  </si>
-  <si>
-    <t>a13</t>
-  </si>
-  <si>
-    <t>a14</t>
-  </si>
-  <si>
-    <t>a15</t>
-  </si>
-  <si>
-    <t>a16</t>
-  </si>
-  <si>
-    <t>Título</t>
-  </si>
-  <si>
-    <t>Cação Nome</t>
-  </si>
-  <si>
-    <t>E^w</t>
-  </si>
-  <si>
-    <t>Cação</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+  <si>
+    <t>Group1</t>
+  </si>
+  <si>
+    <t>Group2</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var3</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>Var5</t>
+  </si>
+  <si>
+    <t>Var6</t>
+  </si>
+  <si>
+    <t>Var7</t>
+  </si>
+  <si>
+    <t>Var8</t>
+  </si>
+  <si>
+    <t>Var9</t>
+  </si>
+  <si>
+    <t>Var10</t>
+  </si>
+  <si>
+    <t>Var11</t>
+  </si>
+  <si>
+    <t>Var12</t>
+  </si>
+  <si>
+    <t>Var13</t>
+  </si>
+  <si>
+    <t>Var14</t>
+  </si>
+  <si>
+    <t>Var15</t>
+  </si>
+  <si>
+    <t>Var16</t>
   </si>
 </sst>
 </file>
@@ -448,7 +454,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,1228 +466,1228 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <f ca="1">RAND()</f>
-        <v>0.2625504975454297</v>
+        <v>0.43521345177434356</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:Q17" ca="1" si="0">RAND()</f>
-        <v>8.8227011076671635E-2</v>
+        <v>0.2780827591527919</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71787220840371913</v>
+        <v>0.46055255412697926</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2064000267101469</v>
+        <v>0.11195601547123368</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39668907410911125</v>
+        <v>0.14082908884490619</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19369193646673843</v>
+        <v>0.79496749096014663</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18567724600727942</v>
+        <v>0.4134857675491258</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3221770228722627E-2</v>
+        <v>0.35039086493407801</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74293929295057981</v>
+        <v>0.13478383138849692</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87133380712233455</v>
+        <v>0.89269491387576505</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64524377193883242</v>
+        <v>0.88057272119612617</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9694324442890333</v>
+        <v>0.22978725832657843</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35792430260465302</v>
+        <v>0.74093976844637444</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15152480561007242</v>
+        <v>0.79427130516736677</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4215979310367128E-2</v>
+        <v>0.23945945991807183</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23517504775846965</v>
+        <v>0.82879207272264199</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:Q18" ca="1" si="1">RAND()</f>
-        <v>5.3837141494127216E-2</v>
+        <v>0.80811521777705009</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33912697924140489</v>
+        <v>1.8805472057628614E-2</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24556532097432826</v>
+        <v>0.21898538984667881</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51577605510022895</v>
+        <v>1.8435784496486196E-2</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88286712442362525</v>
+        <v>0.51913543962839548</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71151998671776218</v>
+        <v>5.5358993875712859E-2</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67273197412435382</v>
+        <v>0.46761758587838287</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1036066341003181E-2</v>
+        <v>0.57643738819396628</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13593711202264447</v>
+        <v>0.23583322337138013</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3596351147096517</v>
+        <v>0.11588029688520085</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81807978077678978</v>
+        <v>0.4975901530615916</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95518003531481277</v>
+        <v>0.86773712471969067</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72851870137288766</v>
+        <v>0.86579482021890208</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64048557625261926</v>
+        <v>0.32332347074557066</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7581927896284109E-3</v>
+        <v>0.41097163368299339</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32955796141539551</v>
+        <v>0.3619248753297829</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4032460237459445E-2</v>
+        <v>0.8666078847583597</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21496557645170822</v>
+        <v>6.3962749240235817E-2</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18549526562073348</v>
+        <v>0.301527214665544</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77734064526602653</v>
+        <v>0.46674514348793927</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5259052776247968E-2</v>
+        <v>0.5669661775203636</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72854130578238485</v>
+        <v>0.81104505869301879</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5813707717213632</v>
+        <v>2.9083681377828685E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45115497059514964</v>
+        <v>0.26720471718566197</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28142702712104672</v>
+        <v>0.72391606215814142</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46832299331199356</v>
+        <v>0.20528280510053243</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9324238871043415E-2</v>
+        <v>0.90463539903582713</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17391020738657392</v>
+        <v>0.63661500816916605</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63378700696909374</v>
+        <v>0.44107127441226901</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.842564100118794E-2</v>
+        <v>0.93626265376463114</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86560098418569986</v>
+        <v>0.76195799154687105</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6924335839228828E-2</v>
+        <v>0.46714452104236293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10689507537628196</v>
+        <v>0.72545595130395768</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58265173555128635</v>
+        <v>9.062929910185713E-2</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94751079243062619</v>
+        <v>0.61070264650030015</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25295462462567853</v>
+        <v>0.41999548164688338</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55227903391710931</v>
+        <v>0.84678802619056659</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99042238848871611</v>
+        <v>0.51391267538283691</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97657269730719443</v>
+        <v>0.89625117671369026</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55955638244641914</v>
+        <v>2.6523770890943377E-2</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59523370187475366</v>
+        <v>0.27553233330838856</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8667450968999852E-2</v>
+        <v>0.6585691574079664</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9189261167688032</v>
+        <v>0.15598477382882603</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3747999713532648E-3</v>
+        <v>0.62387270041987719</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24938333375097099</v>
+        <v>0.40192886331821887</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74421425287268084</v>
+        <v>0.78834529831056099</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40444747899570299</v>
+        <v>0.81213681892519984</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98388929141327097</v>
+        <v>0.69885595248397991</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2353826236634845</v>
+        <v>0.99796946818235976</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82215746900788578</v>
+        <v>0.16261999155956008</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68203193836199305</v>
+        <v>0.17757428935063613</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8473815618413951E-3</v>
+        <v>0.83909315110524574</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7394365200361287</v>
+        <v>0.31523492669647579</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92974603336295558</v>
+        <v>0.54718871960255044</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70067255382022275</v>
+        <v>5.2242346110676685E-2</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63507614996985184</v>
+        <v>0.12570368392580855</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12089841681057534</v>
+        <v>8.303667397576131E-2</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18557342801582466</v>
+        <v>0.93971434505542106</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57113368898863071</v>
+        <v>0.25381025807683089</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93618271382999907</v>
+        <v>0.56868371910847093</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46296332778122717</v>
+        <v>0.18993647761517396</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2017088857995293E-2</v>
+        <v>0.72217626384333466</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14672509343415718</v>
+        <v>0.26625001565035655</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69667018021946658</v>
+        <v>0.38649478901123779</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30049990875851995</v>
+        <v>0.73108813538784279</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30451702081185139</v>
+        <v>0.4925413217850364</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54824322711186546</v>
+        <v>0.88913763886077068</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16333396730601846</v>
+        <v>0.36489110725111829</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72177588822693728</v>
+        <v>0.14011253609636987</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38514456862214352</v>
+        <v>0.33223422825102478</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39246480465529321</v>
+        <v>0.27896514705806774</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97691086334814636</v>
+        <v>0.37889526771175142</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22280488719930902</v>
+        <v>0.91303285730022332</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34898750887473451</v>
+        <v>0.44420474574793545</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71228935111920411</v>
+        <v>0.1819136260756733</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38754719583301933</v>
+        <v>0.81349919259254122</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68532408038097337</v>
+        <v>0.17925490465918348</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98223548926515769</v>
+        <v>0.31219297614983155</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33317718069599422</v>
+        <v>0.39818580692536432</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29296288937755222</v>
+        <v>0.94908297797787899</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15694428755351209</v>
+        <v>0.23568668926701508</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10951850839498467</v>
+        <v>1.8781332148288254E-2</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5799994235720898E-2</v>
+        <v>0.61254895658958708</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95867171882384528</v>
+        <v>0.12464315911846302</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44013864899080557</v>
+        <v>0.23356655115170522</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30217222989003789</v>
+        <v>0.32503153894895531</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11070886151141324</v>
+        <v>2.4540140417174894E-2</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14620495526608646</v>
+        <v>0.13225903840028275</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6924090812765501</v>
+        <v>0.54231835184547839</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48303494783600998</v>
+        <v>0.70009643358488072</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60051315298901475</v>
+        <v>0.36167727566798169</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95409106700198631</v>
+        <v>0.69076772674621589</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20567188282646509</v>
+        <v>0.39067622722182804</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47855216974741155</v>
+        <v>0.77165854845236326</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87930315966083372</v>
+        <v>0.94354353267018276</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64776608290933224</v>
+        <v>2.8765687819042318E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85682770035703248</v>
+        <v>0.81904588945832169</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48847646837399972</v>
+        <v>3.038498751711205E-2</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93973648423530354</v>
+        <v>0.96177196095919226</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25746206689008466</v>
+        <v>0.73993225943558549</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98194279045710342</v>
+        <v>0.33960531051146836</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17727941481362908</v>
+        <v>0.10096945097769428</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44696414619843006</v>
+        <v>0.32629564404005085</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52878853647636725</v>
+        <v>0.17972050801745121</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10307307933688181</v>
+        <v>0.79289738802908438</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6374305295640722</v>
+        <v>0.7685565597544427</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90687423963652158</v>
+        <v>0.10407508351216743</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35060016280579065</v>
+        <v>0.8766355904485954</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.430154951531093E-2</v>
+        <v>0.76212278814849566</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28494764462159772</v>
+        <v>5.351895902923931E-2</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75913667743232294</v>
+        <v>0.75922903072318693</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88955831420039666</v>
+        <v>0.30367952089102612</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.277484771710655</v>
+        <v>0.41028632818400024</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21684293060361337</v>
+        <v>0.90410499457470861</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65753793400084737</v>
+        <v>0.71782428859662939</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19816809011094927</v>
+        <v>0.31828734888770915</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92940759254936167</v>
+        <v>0.9486922162550907</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22082107022741793</v>
+        <v>0.53853237862977255</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9144294311557526E-2</v>
+        <v>0.79143766262884119</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60052291399826241</v>
+        <v>0.99655999792392813</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26308511399390078</v>
+        <v>0.35541934794402219</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5725763751565337</v>
+        <v>0.46891907315978199</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97338550121831169</v>
+        <v>0.34538336327378349</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60454795120472182</v>
+        <v>0.96254721752949046</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79568867602219262</v>
+        <v>1.4620587335458679E-2</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82460411144760448</v>
+        <v>0.53857728793379478</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13454649794363627</v>
+        <v>0.93393564559254727</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93611262488078817</v>
+        <v>0.91508889995528819</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43295266993504633</v>
+        <v>0.63838634194243649</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53481660655436536</v>
+        <v>0.3891874744993602</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38617253260058293</v>
+        <v>0.60783838253355071</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6863560846828326</v>
+        <v>0.38262584239606112</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71725462649008853</v>
+        <v>0.98564671815544747</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98202443520629557</v>
+        <v>0.47981851598105907</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55090856870144667</v>
+        <v>0.18217646611997218</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90851251876468708</v>
+        <v>0.76817978527949649</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14517646794950578</v>
+        <v>0.66330069163273175</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58633459294740042</v>
+        <v>0.83693724706662953</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26350983153302554</v>
+        <v>0.13380809236491187</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30448484311486768</v>
+        <v>0.34061084325051938</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90560815988312138</v>
+        <v>0.18752666284211161</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61500817083963455</v>
+        <v>0.87628772303791425</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4762561720666828</v>
+        <v>0.75592271637881814</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39109188525464988</v>
+        <v>0.31825410869854864</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73144524317944726</v>
+        <v>0.39052916349501943</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9420618482257086E-2</v>
+        <v>0.56454501313124061</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41428033406573872</v>
+        <v>0.87945050192505603</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6615241569889726</v>
+        <v>0.1224567445654362</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48836086428517567</v>
+        <v>0.52087961970076402</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3958295497550226</v>
+        <v>0.48110681755212881</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52464485754100876</v>
+        <v>0.81396529846965582</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52780199221100399</v>
+        <v>5.7077322712079104E-3</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28732487906732507</v>
+        <v>0.13593179531911614</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21884788789476817</v>
+        <v>0.66985300731510189</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59835655510085195</v>
+        <v>0.47569277873404536</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67112865740726901</v>
+        <v>0.58249693377148359</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54689337761603973</v>
+        <v>0.26971957043485639</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6561046899941263E-2</v>
+        <v>0.23452808721938334</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93780397197119625</v>
+        <v>0.77422417812380806</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38698881971076737</v>
+        <v>0.5565879312147195</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75951508796488854</v>
+        <v>0.74356426875279413</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66169066513731734</v>
+        <v>0.72753144123744207</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50858647229724097</v>
+        <v>0.31165651049043297</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32918682871173743</v>
+        <v>0.53154401708014909</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15722621313369567</v>
+        <v>0.33872502417184702</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4594444472081505E-2</v>
+        <v>0.40106105210695886</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22242571967274749</v>
+        <v>0.71300314066343384</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4676959154898315E-2</v>
+        <v>0.42687287496215431</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75306186874989167</v>
+        <v>0.30633202257184766</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34051895173728031</v>
+        <v>0.5848678832504951</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44310967838643611</v>
+        <v>0.83603639056847057</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35451779632645253</v>
+        <v>0.52211333147091676</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83947484525918536</v>
+        <v>0.66957829959321247</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6742861730809198E-2</v>
+        <v>0.5454200815988548</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44294616447740809</v>
+        <v>0.58490270422931234</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86325913557500422</v>
+        <v>0.82202071153852452</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42626298119726647</v>
+        <v>0.19033075219521267</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58883236081023738</v>
+        <v>0.59289259502036784</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22414595591606545</v>
+        <v>0.98844483859805787</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10386848643737245</v>
+        <v>0.7342546024599963</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1474714844850862E-2</v>
+        <v>0.38966673724461809</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59833044512478695</v>
+        <v>0.41978243149894579</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40215675332955325</v>
+        <v>0.35176336386425999</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99912400751705144</v>
+        <v>0.57124466757719328</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73635973961780699</v>
+        <v>0.70299404129734433</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86184125798240918</v>
+        <v>0.42053280238549073</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.308780402435616</v>
+        <v>0.52771688412428996</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23100649633321746</v>
+        <v>0.75367766521026502</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31703457726227147</v>
+        <v>0.70913036789944939</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10583823052321595</v>
+        <v>0.45387645603486937</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74820731321318446</v>
+        <v>0.82567645581914595</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35788658680594543</v>
+        <v>0.24055667440582029</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38342019788811188</v>
+        <v>0.46981093039874389</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2729547362992818</v>
+        <v>0.53408264519597037</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18195333884854725</v>
+        <v>0.55626408543963757</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47161631824937755</v>
+        <v>3.3582771051055005E-3</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43633030238382964</v>
+        <v>0.94017186736182823</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65550682858147213</v>
+        <v>0.23705372474016384</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83395045105184673</v>
+        <v>1.7150569843452645E-3</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70307832801656533</v>
+        <v>0.66691792609419986</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12568007504158918</v>
+        <v>0.31882308619567534</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8443500062604108E-2</v>
+        <v>0.60175299866618226</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41099709702334697</v>
+        <v>0.34124024389544028</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79524345555578801</v>
+        <v>0.11723469671726028</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96480725066075568</v>
+        <v>0.7784924879700269</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1333832167897366E-2</v>
+        <v>0.76647700103530492</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53464962147491413</v>
+        <v>0.20677302276418397</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39528903955550787</v>
+        <v>0.78728162358847364</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44319842917644481</v>
+        <v>0.89192339745588534</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7856668997645819E-2</v>
+        <v>0.88900299362030322</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49493017260772876</v>
+        <v>0.22817750292831551</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67400672310889043</v>
+        <v>0.50571585413273257</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44311170675823486</v>
+        <v>0.15497636084200761</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30242627365807706</v>
+        <v>0.13442918717821351</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81581777769006236</v>
+        <v>0.84247082628788972</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17957897497718434</v>
+        <v>0.45727470889606492</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83101210149559679</v>
+        <v>0.45195847732788996</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25003200841233131</v>
+        <v>0.8315629082807805</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26283746915439199</v>
+        <v>0.74593529079164578</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93110916767572449</v>
+        <v>0.33148424280040223</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97519317018312723</v>
+        <v>0.264602402873514</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75167515250738381</v>
+        <v>6.4137666965664697E-2</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33214112060184064</v>
+        <v>8.2035633690683674E-2</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15797665346866474</v>
+        <v>0.64720971986100728</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34916321672106565</v>
+        <v>0.27084826946306384</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.875384907081374E-2</v>
+        <v>0.57756408664615677</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61024542532385928</v>
+        <v>0.52787467735874438</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1271127321656087</v>
+        <v>0.49513536290483762</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6112838914577321</v>
+        <v>0.15591923259290452</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59478748780943191</v>
+        <v>0.99101939060478972</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92736656681065788</v>
+        <v>0.3451163706808118</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39477706024424908</v>
+        <v>0.49850506538765704</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92925388381094953</v>
+        <v>0.78850606290974812</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15292822379381865</v>
+        <v>0.19568577425495237</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44807006751082445</v>
+        <v>0.87806711478234933</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82142889796259844</v>
+        <v>0.34616687993229101</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64751214412684588</v>
+        <v>0.10789554367824783</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84759173438346669</v>
+        <v>0.82442564879694469</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70594371816520585</v>
+        <v>0.22123561277376702</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.36534835233283E-2</v>
+        <v>9.9548328318853518E-2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28932087599335032</v>
+        <v>0.1999152435642737</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8836978043844903E-2</v>
+        <v>0.31592048634525283</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72036481965637245</v>
+        <v>0.40157710705595684</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97264018451680878</v>
+        <v>0.75051931711291364</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.095545523851396E-2</v>
+        <v>0.78478312511555792</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84371804685845253</v>
+        <v>0.98346150617534978</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.823174046747017</v>
+        <v>0.1434791681871268</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83202396059781991</v>
+        <v>0.43182999593717475</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.960595460838424E-2</v>
+        <v>0.36755367225310076</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26857066050395806</v>
+        <v>0.91374276853486047</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77952367488927765</v>
+        <v>0.13692380937170889</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78299463939976355</v>
+        <v>8.7357333192240594E-2</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26924778784287562</v>
+        <v>0.5528259324597069</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87728858383728381</v>
+        <v>8.2826953650637636E-3</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58576531386853847</v>
+        <v>0.70013955639731285</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32443958924612282</v>
+        <v>0.34397546819691882</v>
       </c>
     </row>
   </sheetData>
